--- a/src/main/scala/reg/test1.xlsx
+++ b/src/main/scala/reg/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2E2B3F-41EC-4851-B859-1DC1B5FC0353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B5D6C-F7D4-4E67-A46C-C0D3A83B8078}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>bitOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitWidth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,10 +108,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -185,11 +188,11 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
@@ -471,127 +474,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="18.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="27.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="8">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="b">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="8">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75AD1D5C-BD60-48A5-9845-D655EE5E6A0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{75AD1D5C-BD60-48A5-9845-D655EE5E6A0F}">
       <formula1>"READ_ONLY,WRITE_ONLY,READ_WRITE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{4ED8FFE1-A3C6-4023-934A-3E5052D71475}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{4ED8FFE1-A3C6-4023-934A-3E5052D71475}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{E539853E-CC03-4117-9D82-930AF0C250C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{E539853E-CC03-4117-9D82-930AF0C250C1}">
       <formula1>"Bits,Bool"</formula1>
     </dataValidation>
   </dataValidations>
